--- a/SEP-VanLangHotel/Upload/SEP_Team09_Mau_File_Import_VanlangHotel.xlsx
+++ b/SEP-VanLangHotel/Upload/SEP_Team09_Mau_File_Import_VanlangHotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD60FD-0603-4F18-83EF-D9FA81B6E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4672607-8AC4-4267-A541-BE0E6346453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E93DE5FD-DC7B-498D-86AD-F192523F8D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SL Người lớn</t>
   </si>
   <si>
-    <t>SL Trẻ em</t>
-  </si>
-  <si>
     <t>Số giường</t>
   </si>
   <si>
@@ -249,24 +246,12 @@
   </si>
   <si>
     <t>Loại phòng</t>
-  </si>
-  <si>
-    <t>Ngày ở (YYYY-MM-DD)
-VD: 2022-05-30</t>
-  </si>
-  <si>
-    <t>Ngày đi (YYYY-MM-DD)
-VD: 2022-05-30</t>
   </si>
   <si>
     <t>Nam (1)
 Nữ (0)</t>
   </si>
   <si>
-    <t>Ngày sinh (YYYY-MM-DD)
-VD: 2000-02-20</t>
-  </si>
-  <si>
     <t>THÔNG TIN PHÒNG</t>
   </si>
   <si>
@@ -280,6 +265,18 @@
   </si>
   <si>
     <t>F4</t>
+  </si>
+  <si>
+    <t>Nếu số người lớn &lt;= 2 và trẻ em &lt;= 2</t>
+  </si>
+  <si>
+    <t>Nếu số người lớn = 3 người lớn và trẻ em &lt;= 3</t>
+  </si>
+  <si>
+    <t>Nếu số người lớn = 4 người lớn và trẻ em &lt;= 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu số người lớn &lt;= 2 và trẻ em từ &lt;= 4 </t>
   </si>
   <si>
     <r>
@@ -400,30 +397,7 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Năm-Tháng-Ngày (YYYY-MM-DD)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Năm-Tháng-Ngày (VD: 2022-01-30)
 4. </t>
     </r>
     <r>
@@ -506,18 +480,55 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Nếu số người lớn &lt;= 2 và trẻ em &lt;= 2</t>
-  </si>
-  <si>
-    <t>Nếu số người lớn = 3 người lớn và trẻ em &lt;= 3</t>
-  </si>
-  <si>
-    <t>Nếu số người lớn = 4 người lớn và trẻ em &lt;= 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu số người lớn &lt;= 2 và trẻ em từ &lt;= 4 </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ngày đến nhận phòng phải cùng 1 ngày cho tất cả các phòng</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngày sinh (Năm-Tháng-Ngày)
+VD: 2000-02-20</t>
+  </si>
+  <si>
+    <t>SL Trẻ em &lt; 14t</t>
+  </si>
+  <si>
+    <t>Phần thông tin của người trụ trì Tour</t>
+  </si>
+  <si>
+    <t>Phần thông tin của khách hàng đi Tour</t>
+  </si>
+  <si>
+    <t>070200001923</t>
+  </si>
+  <si>
+    <t>070200000000</t>
+  </si>
+  <si>
+    <t>070200000001</t>
+  </si>
+  <si>
+    <t>0367909249</t>
   </si>
 </sst>
 </file>
@@ -527,12 +538,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,19 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,99 +766,109 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,7 +1189,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1176,51 +1199,51 @@
     <col min="3" max="5" width="10.3984375" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" customWidth="1"/>
     <col min="7" max="7" width="38.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.796875" customWidth="1"/>
+    <col min="8" max="8" width="78.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1235,18 +1258,18 @@
         <v>250000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1260,17 +1283,17 @@
       <c r="F4" s="2">
         <v>400000</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="G4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1285,16 +1308,16 @@
         <v>500000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1309,26 +1332,26 @@
         <v>600000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1343,16 +1366,16 @@
         <v>280000</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1366,17 +1389,17 @@
       <c r="F9" s="2">
         <v>430000</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>84</v>
+      <c r="G9" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1391,16 +1414,16 @@
         <v>530000</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1415,26 +1438,26 @@
         <v>630000</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1449,16 +1472,16 @@
         <v>310000</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1472,17 +1495,17 @@
       <c r="F14" s="2">
         <v>460000</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>84</v>
+      <c r="G14" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1497,16 +1520,16 @@
         <v>560000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1521,26 +1544,26 @@
         <v>660000</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1555,16 +1578,16 @@
         <v>340000</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1578,17 +1601,17 @@
       <c r="F19" s="2">
         <v>490000</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>84</v>
+      <c r="G19" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1603,16 +1626,16 @@
         <v>590000</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1627,26 +1650,26 @@
         <v>690000</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1661,16 +1684,16 @@
         <v>370000</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1684,17 +1707,17 @@
       <c r="F24" s="2">
         <v>520000</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>84</v>
+      <c r="G24" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -1709,16 +1732,16 @@
         <v>620000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -1733,26 +1756,26 @@
         <v>720000</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1767,16 +1790,16 @@
         <v>220000</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1790,17 +1813,17 @@
       <c r="F29" s="2">
         <v>370000</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>84</v>
+      <c r="G29" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -1815,16 +1838,16 @@
         <v>470000</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
@@ -1839,18 +1862,18 @@
         <v>570000</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="3"/>
     </row>
   </sheetData>
@@ -1871,7 +1894,7 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1879,921 +1902,925 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EC22DE-93F5-4706-915E-304A5F11A983}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="4"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="24.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.296875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
+      <c r="C2" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="F4" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36829</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="11">
+        <v>36615</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11">
+        <v>37178</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11">
+        <v>36911</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="11">
+        <v>37230</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11">
+        <v>37010</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11">
+        <v>36790</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>44732</v>
-      </c>
-      <c r="F3" s="12">
-        <v>44765</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11">
-        <v>70200000000</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="12">
-        <v>36829</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="F12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="11">
+        <v>36570</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11">
+        <v>36350</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>44735</v>
-      </c>
-      <c r="F4" s="12">
-        <v>44737</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11">
+        <v>36130</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11">
+        <v>35910</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="11">
+        <v>35690</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="11">
+        <v>35470</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11">
-        <v>70200000001</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="12">
-        <v>37178</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="F18" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11">
+        <v>35250</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>44734</v>
-      </c>
-      <c r="F5" s="12">
-        <v>44800</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11">
-        <v>70200000002</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="12">
-        <v>36911</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="F19" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="11">
+        <v>35030</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>44728</v>
-      </c>
-      <c r="F6" s="12">
-        <v>44863</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11">
-        <v>70200000003</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="12">
-        <v>37230</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>44730</v>
-      </c>
-      <c r="F7" s="12">
-        <v>44926</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11">
-        <v>70200000004</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F20" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="11">
+        <v>34810</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="12">
-        <v>37010</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>44732</v>
-      </c>
-      <c r="F8" s="12">
-        <v>44989</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11">
-        <v>70200000005</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12">
-        <v>36790</v>
-      </c>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="11">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>1</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>44734</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45052</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="11">
-        <v>70200000006</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12">
-        <v>36570</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11">
-        <v>1</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>44736</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45115</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11">
-        <v>70200000007</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="12">
-        <v>36350</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>44738</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45178</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11">
-        <v>70200000008</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="12">
-        <v>36130</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>44740</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45241</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="11">
-        <v>70200000009</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="12">
-        <v>35910</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <v>1</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>44742</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45304</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11">
-        <v>70200000010</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="12">
-        <v>35690</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>44744</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45367</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="11">
-        <v>70200000011</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="12">
-        <v>35470</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="11">
-        <v>1</v>
-      </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>44746</v>
-      </c>
-      <c r="F15" s="12">
-        <v>45430</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11">
-        <v>70200000012</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="12">
-        <v>35250</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>44748</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45493</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="11">
-        <v>70200000013</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="12">
-        <v>35030</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>44750</v>
-      </c>
-      <c r="F17" s="12">
-        <v>45556</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11">
-        <v>70200000014</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="12">
-        <v>34810</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A5:O5"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I3:I9" numberStoredAsText="1"/>
+    <ignoredError sqref="G7:G12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B840CFF8BCBCC04B9FBF78A2B37C603B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c3b211f390d76d2b813cea105395d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="45e2578b-5781-47e1-85a2-a2bca000d7fe" xmlns:ns4="23dced98-c23c-4266-be03-749ab8bb2b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdb726b0246e884b034b5f8cf6d0c271" ns3:_="" ns4:_="">
     <xsd:import namespace="45e2578b-5781-47e1-85a2-a2bca000d7fe"/>
@@ -3002,36 +3029,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937FC52D-6EB8-4763-9B21-6D5B28467E89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E843C9-AFC0-407A-892D-C6431DD2F37F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="45e2578b-5781-47e1-85a2-a2bca000d7fe"/>
-    <ds:schemaRef ds:uri="23dced98-c23c-4266-be03-749ab8bb2b21"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3054,9 +3055,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E843C9-AFC0-407A-892D-C6431DD2F37F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937FC52D-6EB8-4763-9B21-6D5B28467E89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="45e2578b-5781-47e1-85a2-a2bca000d7fe"/>
+    <ds:schemaRef ds:uri="23dced98-c23c-4266-be03-749ab8bb2b21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>